--- a/TSDAVO Opus 3787-1.xlsx
+++ b/TSDAVO Opus 3787-1.xlsx
@@ -2,39 +2,135 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1380" yWindow="3380" windowWidth="27640" windowHeight="16940" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CDAVO 3787-1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="12">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="12"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color indexed="8"/>
+      <sz val="21.6"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <i val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <i val="1"/>
+      <color theme="0"/>
+      <sz val="14"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF222222"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color indexed="8"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.3999755851924192"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6DCE4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.1499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,17 +138,159 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -135,44 +373,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -199,14 +437,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -233,6 +489,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -244,166 +518,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -413,961 +663,1159 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16"/>
+  <cols>
+    <col width="9.83203125" customWidth="1" style="33" min="1" max="1"/>
+    <col width="50.83203125" customWidth="1" style="2" min="2" max="2"/>
+    <col width="10.6640625" customWidth="1" style="2" min="3" max="3"/>
+    <col width="7.33203125" customWidth="1" style="6" min="4" max="4"/>
+    <col width="10.6640625" customWidth="1" style="6" min="5" max="5"/>
+    <col width="12.5" customWidth="1" style="6" min="6" max="6"/>
+    <col width="12.33203125" customWidth="1" style="6" min="7" max="7"/>
+    <col width="9.1640625" customWidth="1" style="6" min="8" max="9"/>
+    <col width="59.5" customWidth="1" style="3" min="10" max="10"/>
+    <col width="11.5" customWidth="1" style="3" min="11" max="16384"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Number</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="1" ht="29" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Archives / CDAVO / 3787 / 1</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+    </row>
+    <row r="2" ht="19" customFormat="1" customHeight="1" s="2">
+      <c r="A2" s="13" t="inlineStr">
+        <is>
+          <t>1 ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" customFormat="1" s="11">
+      <c r="A3" s="14" t="n"/>
+      <c r="B3" s="15" t="n"/>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>source:</t>
+        </is>
+      </c>
+      <c r="D3" s="16" t="inlineStr">
+        <is>
+          <t>URL NEEDED!</t>
+        </is>
+      </c>
+      <c r="E3" s="28" t="n"/>
+      <c r="F3" s="28" t="n"/>
+      <c r="G3" s="28" t="n"/>
+      <c r="H3" s="9" t="n"/>
+      <c r="I3" s="9" t="n"/>
+    </row>
+    <row r="4" ht="15" customFormat="1" customHeight="1" s="11">
+      <c r="A4" s="14" t="n"/>
+      <c r="B4" s="15" t="n"/>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>accessed:</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>13 Jul 2023</t>
+        </is>
+      </c>
+      <c r="E4" s="9" t="n"/>
+      <c r="F4" s="9" t="n"/>
+      <c r="G4" s="9" t="n"/>
+      <c r="H4" s="9" t="n"/>
+      <c r="I4" s="9" t="n"/>
+    </row>
+    <row r="5" ht="7.5" customHeight="1">
+      <c r="A5" s="3" t="n"/>
+      <c r="F5" s="7" t="n"/>
+      <c r="G5" s="7" t="n"/>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="n"/>
+    </row>
+    <row r="6" ht="19" customFormat="1" customHeight="1" s="11">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>Note: Most files after about 1917 do not segregate Jewish vs non-Jewish records, which are mixed together</t>
+        </is>
+      </c>
+      <c r="F6" s="9" t="n"/>
+      <c r="G6" s="9" t="n"/>
+      <c r="H6" s="9" t="n"/>
+      <c r="I6" s="9" t="n"/>
+      <c r="J6" s="10" t="inlineStr">
+        <is>
+          <t>Key: J, Jewish; M, maybe; U, unlikely; N, not Jewish</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15" customFormat="1" customHeight="1" s="11">
+      <c r="A7" s="14" t="n"/>
+      <c r="B7" s="15" t="n"/>
+      <c r="C7" s="15" t="n"/>
+      <c r="D7" s="9" t="n"/>
+      <c r="E7" s="9" t="n"/>
+      <c r="F7" s="9" t="n"/>
+      <c r="G7" s="9" t="n"/>
+      <c r="H7" s="9" t="n"/>
+      <c r="I7" s="9" t="n"/>
+    </row>
+    <row r="8" customFormat="1" s="21">
+      <c r="A8" s="18" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B8" s="19" t="inlineStr">
+        <is>
+          <t>Link + description of contents</t>
+        </is>
+      </c>
+      <c r="C8" s="18" t="inlineStr">
+        <is>
+          <t>Year(s)</t>
+        </is>
+      </c>
+      <c r="D8" s="18" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E8" s="18" t="inlineStr">
+        <is>
+          <t>Index?</t>
+        </is>
+      </c>
+      <c r="F8" s="18" t="inlineStr">
+        <is>
+          <t>Volunteer</t>
+        </is>
+      </c>
+      <c r="G8" s="18" t="inlineStr">
+        <is>
+          <t>File name</t>
+        </is>
+      </c>
+      <c r="H8" s="18" t="inlineStr">
+        <is>
+          <t># pages</t>
+        </is>
+      </c>
+      <c r="I8" s="18" t="inlineStr">
+        <is>
+          <t>Jewish?</t>
+        </is>
+      </c>
+      <c r="J8" s="20" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" customFormat="1" s="15">
+      <c r="A9" s="34" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B9" s="34" t="inlineStr">
         <is>
           <t>Circulars of the Ukrainian Main Committee of the Jewish Communist Youth Union (EUJCM) for 1920, 1920, 21 sheets.</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C9" s="23" t="inlineStr">
         <is>
           <t>1920</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="D9" s="23" t="n"/>
+      <c r="E9" s="24" t="n"/>
+      <c r="F9" s="25" t="n"/>
+      <c r="G9" s="25" t="n"/>
+      <c r="H9" s="25" t="n"/>
+      <c r="I9" s="25" t="n"/>
+      <c r="J9" s="26" t="n"/>
+    </row>
+    <row r="10" customFormat="1" s="15">
+      <c r="A10" s="34" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B10" s="34" t="inlineStr">
         <is>
           <t>Circulars of the Ukrainian Main Committee of the Jewish Communist Youth Union (EUJCM) for 1920, 1920-1921, 26 sheets.</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C10" s="29" t="inlineStr">
         <is>
           <t>1920-1921</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="D10" s="30" t="n"/>
+      <c r="E10" s="31" t="n"/>
+      <c r="F10" s="32" t="n"/>
+      <c r="G10" s="32" t="n"/>
+      <c r="H10" s="32" t="n"/>
+      <c r="I10" s="32" t="n"/>
+    </row>
+    <row r="11" ht="15" customFormat="1" customHeight="1" s="11">
+      <c r="A11" s="34" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B11" s="34" t="inlineStr">
         <is>
           <t>Correspondence with the Mariupol Committee of the Communist Party of Ukraine about its work, 1920, 10 sheets.</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C11" s="15" t="inlineStr">
         <is>
           <t>1920</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="D11" s="9" t="n"/>
+      <c r="E11" s="9" t="n"/>
+      <c r="F11" s="9" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="9" t="n"/>
+      <c r="I11" s="9" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="34" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B12" s="34" t="inlineStr">
         <is>
           <t>Correspondence with the Kyiv Committee of the Communist Party of Ukraine about his work, 1920-1921, 103 sheets.</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>1920-1921</t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="F12" s="7" t="n"/>
+      <c r="G12" s="7" t="n"/>
+      <c r="H12" s="3" t="n"/>
+      <c r="I12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="34" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B13" s="34" t="inlineStr">
         <is>
           <t>Correspondence with the Pyryatyn committee of the ECSM about its work; minutes of meetings of the Pyryatyn organization of the Communist Party of Ukraine, 1920-1921, 169 sheets.</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>1920-1921</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="E13" s="3" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="3" t="n"/>
+      <c r="I13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="34" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B14" s="34" t="inlineStr">
         <is>
           <t>Correspondence with the Chernihiv Provincial Committee of the Communist Party of Ukraine about its work, 1920-1921, 265 sheets.</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>1920-1921</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="34" t="inlineStr">
         <is>
           <t>6a</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B15" s="34" t="inlineStr">
         <is>
           <t>Documents of the 2nd Chernihiv Provincial Conference of the Communist Party of Ukraine, 1920, 38 sheets.</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>1920</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="34" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B16" s="34" t="inlineStr">
         <is>
           <t>Correspondence with the Sosnytsia Committee of the Communist Party of Ukraine about its work; minutes of meetings of the Sosnytsky Committee of the Communist Party of Chernihiv Province, 1920-1921, 398 sheets.</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>1920-1921</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="34" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B17" s="34" t="inlineStr">
         <is>
           <t>Correspondence with the Sosnytsia Committee of the Communist Party of Ukraine about its work; minutes of meetings of the Sosnytskyi Committee of the Communist Party of Chernihiv Province, 1920-1921, 121 sheets.</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>1920-1921</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="34" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B18" s="34" t="inlineStr">
         <is>
           <t>Minutes of meetings of school branches of the Communist Party of Ukraine in the city of Sosnovytsia, Chernihiv province, 1920, 6 sheets.</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>1920</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="34" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B19" s="34" t="inlineStr">
         <is>
           <t>Minutes of meetings of the Sosnytsk Committee of the Communist Party of Ukraine, 1920, 39 sheets.</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>1920</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="34" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B20" s="34" t="inlineStr">
         <is>
           <t>Journal of incoming papers of the Ukrainian Main Committee of the Communist Party of Ukraine, 1920-1921, 32 sheets.</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>1920-1921</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="34" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B21" s="34" t="inlineStr">
         <is>
           <t>Journal of original papers of the Ukrainian Main Committee of the Communist Party of Ukraine, 1920-1921, 49 sheets.</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>1920-1921</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="34" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B22" s="34" t="inlineStr">
         <is>
           <t>Circulars of the Ukrainian Main Committee of the EUCM, 1921, 57 sheets.</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1921</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="34" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B23" s="34" t="inlineStr">
         <is>
           <t>Circulars of the Central Committee of the Communist Party of Ukraine, 1921, 36 sheets.</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1921</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="34" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B24" s="34" t="inlineStr">
         <is>
           <t>Correspondence with the Central Committee of the Ukrainian Communist Party about the work of the Ukrainian Communist Party in Ukraine, 1921, 162 sheets.</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1921</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="34" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B25" s="34" t="inlineStr">
         <is>
           <t>Correspondence with the Central Committee and local organizations of the EUKM about work; circulars of the Ukrainian Main Committee of the Ukrainian Communist Party, 1921, 333 sheets.</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1921</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="34" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B26" s="34" t="inlineStr">
         <is>
           <t>Correspondence with the Yekaterinoslav Provincial Committee of the EUKM about its work, 1921, 28 sheets.</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1921</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="34" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B27" s="34" t="inlineStr">
         <is>
           <t>Correspondence with the Ekaterinoslav Provincial Committee of the Ukrainian Communist Party about its work, 1921, 37 sheets.</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1921</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="34" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B28" s="34" t="inlineStr">
         <is>
           <t>Correspondence with the Zhytomyr committee of the EUKM about its work, 1921, 66 sheets.</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1921</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="34" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B29" s="34" t="inlineStr">
         <is>
           <t>Correspondence with the Zhytomyr committee of the EUKM about its work, 1921, 93 sheets.</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1921</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="34" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B30" s="34" t="inlineStr">
         <is>
           <t>Questionnaires of responsible employees of the Kyiv Provincial Committee of the EU CM, 1921, 3 sheets.</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1921</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="34" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B31" s="34" t="inlineStr">
         <is>
           <t>Correspondence with the Malin Committee of the EUKM about its work, 1921, 7 sheets.</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>1921</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="34" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B32" s="34" t="inlineStr">
         <is>
           <t>Correspondence with the Malinsky and Berdychiv committees, EUKM, 1921, 84 sheets.</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>1921</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="34" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B33" s="34" t="inlineStr">
         <is>
           <t>Correspondence with the Odesa regional and other committees of the EUKM about work, 1921, 257 sheets.</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>1921</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="34" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B34" s="34" t="inlineStr">
         <is>
           <t>Correspondence with the Odesa Regional Committee of the Ukrainian Communist Party about its work, 1921, 59 sheets.</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>1921</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="34" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B35" s="34" t="inlineStr">
         <is>
           <t>Correspondence with the Odesa Regional Committee of the Ukrainian Communist Party about its work, 1921, 26 sheets.</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1921</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="34" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B36" s="34" t="inlineStr">
         <is>
           <t>Correspondence with the Poltava Committee of the Communist Party of Ukraine, 1921, 18 sheets.</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1921</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="34" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B37" s="34" t="inlineStr">
         <is>
           <t>Questionnaires of members of the Kremenchug organization of the EUKM, 1921, 21 sheets.</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1921</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="34" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B38" s="34" t="inlineStr">
         <is>
           <t>Correspondence with the Kremenchug Committee of the Communist Party of Ukraine about work, 1921, 25 sheets.</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>1921</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="34" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B39" s="34" t="inlineStr">
         <is>
           <t>Correspondence with the Lubensk committee of the EUKM about the work of the committee, etc., 1921, 45 sheets.</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>1921</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="34" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B40" s="34" t="inlineStr">
         <is>
           <t>Correspondence with the Pyryatyn organization of the EUKM about its work, 1921, 60 sheets.</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>1921</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="34" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B41" s="34" t="inlineStr">
         <is>
           <t>Correspondence with the Left Bank Bureau of the Ukrainian Communist Party of Ukraine in Kharkiv about his work, etc., 1921, 196 sheets.</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>1921</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="34" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B42" s="34" t="inlineStr">
         <is>
           <t>Correspondence with the Yelisavetgrad organization of the EUKM, 1921, 18 sheets.</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>1921</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="34" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B43" s="34" t="inlineStr">
         <is>
           <t>Correspondence with the Kryvyi Rih organization of the EUKM about its work, 1921, 10 sheets.</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>1921</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="34" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B44" s="34" t="inlineStr">
         <is>
           <t>Correspondence with the Tiraspol organization of the EUKM about its work, 1921, 5 sheets.</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>1921</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="34" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B45" s="34" t="inlineStr">
         <is>
           <t>Correspondence with the Chernihiv Provincial Committee of the Ukrainian Communist Party about its work, 1921, 43 sheets.</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>1921</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="34" t="inlineStr">
         <is>
           <t>36a</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B46" s="34" t="inlineStr">
         <is>
           <t>Correspondence with the Klintsivsk Organization of the Ukrainian Medical Association of the Chernihiv Province about its work, 1921, 6 sheets.</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>1921</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="34" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B47" s="34" t="inlineStr">
         <is>
           <t>Correspondence with the Korop Organization of the Ukrainian Communist Party of Chernihiv Province about its work, 1921, 21 sheets.</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>1921</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="34" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B48" s="34" t="inlineStr">
         <is>
           <t>Correspondence with the Makoshyn Organization of the Ukrainian Communist Party of Chernihiv Province about its work, 1921, 26 sheets.</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>1921</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="34" t="inlineStr">
         <is>
           <t>39</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B49" s="34" t="inlineStr">
         <is>
           <t>Questionnaires for the medical examination of the members of the Makoshyn organization of the EUKM, 1921, 5 sheets.</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>1921</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="34" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B50" s="34" t="inlineStr">
         <is>
           <t>Correspondence with the Minsk Committee of the Communist Party of Ukraine about its work, 1921, 10 sheets.</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>1921</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="34" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B51" s="34" t="inlineStr">
         <is>
           <t>Correspondence with the Nizhyn organization of the EUKM about its work, 1921, 85 sheets.</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>1921</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="34" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B52" s="34" t="inlineStr">
         <is>
           <t>Correspondence with the Sosnytsia organization of the EUKM about its work, 1921, 12 sheets.</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>1921</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="34" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B53" s="34" t="inlineStr">
         <is>
           <t>Correspondence with the Sosnytsia organization of the EUKM about its work, 1921, 15 sheets.</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>1921</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="34" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B54" s="34" t="inlineStr">
         <is>
           <t>Questionnaires of the members of the Sosnytsk organization of the Ukrainian Communist Party of Chernihiv Province, 1921, 51 sheets.</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>1921</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="34" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B55" s="34" t="inlineStr">
         <is>
           <t>Correspondence with Belotserkivska, Samara and other organizations of the EUKM about their work, 1921, 9 sheets.</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>1921</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="34" t="inlineStr">
         <is>
           <t>46</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B56" s="34" t="inlineStr">
         <is>
           <t>Mandates and certificates issued by the Ukrainian Main Committee of the European Union to various persons, 1921, 127 sheets.</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>1921</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="34" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B57" s="34" t="inlineStr">
         <is>
           <t>Old description No. 1, 5 sheets.</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <f>rows(A9:a57)</f>
+        <v/>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>totals</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59">
+        <f>counta(E9:E57)</f>
+        <v/>
+      </c>
+      <c r="F59">
+        <f>counta(F9:F57)</f>
+        <v/>
+      </c>
+      <c r="G59">
+        <f>counta(G9:G57)</f>
+        <v/>
+      </c>
+      <c r="H59">
+        <f>sum(H9:H57)</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A2:J2"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A3" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A4" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A5" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A6" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A7" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A8" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A9" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A10" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A11" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A12" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A13" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A14" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A15" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId28"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A16" r:id="rId29"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId30"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A17" r:id="rId31"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId32"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A18" r:id="rId33"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId34"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A19" r:id="rId35"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId36"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A20" r:id="rId37"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId38"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A21" r:id="rId39"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId40"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A22" r:id="rId41"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId42"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A23" r:id="rId43"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId44"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A24" r:id="rId45"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId46"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A25" r:id="rId47"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId48"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A26" r:id="rId49"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId50"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A27" r:id="rId51"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId52"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A28" r:id="rId53"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId54"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A29" r:id="rId55"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId56"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A30" r:id="rId57"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId58"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A31" r:id="rId59"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId60"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A32" r:id="rId61"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId62"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A33" r:id="rId63"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId64"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A34" r:id="rId65"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId66"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A35" r:id="rId67"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId68"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A36" r:id="rId69"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId70"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A37" r:id="rId71"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId72"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A38" r:id="rId73"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B38" r:id="rId74"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A39" r:id="rId75"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B39" r:id="rId76"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A40" r:id="rId77"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B40" r:id="rId78"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A41" r:id="rId79"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B41" r:id="rId80"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A42" r:id="rId81"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B42" r:id="rId82"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A43" r:id="rId83"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B43" r:id="rId84"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A44" r:id="rId85"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B44" r:id="rId86"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A45" r:id="rId87"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B45" r:id="rId88"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A46" r:id="rId89"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B46" r:id="rId90"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A47" r:id="rId91"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B47" r:id="rId92"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A48" r:id="rId93"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B48" r:id="rId94"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A49" r:id="rId95"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B49" r:id="rId96"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A50" r:id="rId97"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B50" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D3" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A9" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A10" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A11" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A12" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A13" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A14" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A15" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A16" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A17" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A18" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A19" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A20" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A21" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A22" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId29"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A23" r:id="rId30"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId31"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A24" r:id="rId32"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId33"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A25" r:id="rId34"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId35"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A26" r:id="rId36"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId37"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A27" r:id="rId38"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId39"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A28" r:id="rId40"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId41"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A29" r:id="rId42"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId43"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A30" r:id="rId44"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId45"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A31" r:id="rId46"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId47"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A32" r:id="rId48"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId49"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A33" r:id="rId50"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId51"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A34" r:id="rId52"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId53"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A35" r:id="rId54"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId55"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A36" r:id="rId56"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId57"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A37" r:id="rId58"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId59"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A38" r:id="rId60"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B38" r:id="rId61"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A39" r:id="rId62"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B39" r:id="rId63"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A40" r:id="rId64"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B40" r:id="rId65"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A41" r:id="rId66"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B41" r:id="rId67"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A42" r:id="rId68"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B42" r:id="rId69"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A43" r:id="rId70"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B43" r:id="rId71"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A44" r:id="rId72"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B44" r:id="rId73"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A45" r:id="rId74"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B45" r:id="rId75"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A46" r:id="rId76"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B46" r:id="rId77"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A47" r:id="rId78"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B47" r:id="rId79"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A48" r:id="rId80"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B48" r:id="rId81"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A49" r:id="rId82"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B49" r:id="rId83"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A50" r:id="rId84"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B50" r:id="rId85"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A51" r:id="rId86"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B51" r:id="rId87"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A52" r:id="rId88"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B52" r:id="rId89"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A53" r:id="rId90"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B53" r:id="rId91"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A54" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B54" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A55" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B55" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A56" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B56" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A57" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B57" r:id="rId99"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>